--- a/app/exports/exports_vmware/vcenter_1 (vmware SITE 1).xlsx
+++ b/app/exports/exports_vmware/vcenter_1 (vmware SITE 1).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Bull\Developpement\Python\Projets\vmfinder\vmfinder\exports\exports_vmware\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Bull\Dev\Finder\Finder\app\exports\exports_vmware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F0F83D-90F9-41EB-B2D4-E4CD6452A98D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D9FED0-155C-47DA-B104-BAC9D025C305}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -217,19 +217,19 @@
     <t>VI SDK UUID</t>
   </si>
   <si>
-    <t>VM20</t>
-  </si>
-  <si>
     <t>VM20.local</t>
   </si>
   <si>
-    <t>VM1</t>
-  </si>
-  <si>
     <t>ESXi_1</t>
   </si>
   <si>
     <t>ESXi_2</t>
+  </si>
+  <si>
+    <t>VM_VMWARE_1</t>
+  </si>
+  <si>
+    <t>VM_VMWARE_2</t>
   </si>
 </sst>
 </file>
@@ -595,13 +595,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BM3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AX1" workbookViewId="0">
-      <selection activeCell="BE3" sqref="BE3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
@@ -863,13 +863,13 @@
     </row>
     <row r="2" spans="1:65">
       <c r="A2" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -923,7 +923,7 @@
       <c r="BC2" s="2"/>
       <c r="BD2" s="2"/>
       <c r="BE2" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BF2" s="2"/>
       <c r="BG2" s="2"/>
@@ -936,7 +936,7 @@
     </row>
     <row r="3" spans="1:65">
       <c r="A3" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -994,7 +994,7 @@
       <c r="BC3" s="2"/>
       <c r="BD3" s="2"/>
       <c r="BE3" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="BF3" s="2"/>
       <c r="BG3" s="2"/>
